--- a/include/8NumResults/problem1/my/errors/table.xlsx
+++ b/include/8NumResults/problem1/my/errors/table.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="Admin"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Diploma\DiplomaText\include\8NumResults\problem1\my\errors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="pm" day="1401052695" val="665"/>
@@ -19,37 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>-</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,30 +53,33 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -100,10 +94,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -132,14 +126,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -315,503 +369,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>221</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>400</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>1.47687562792605</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1.38268803993716</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2">
+        <v>1.3826880399371599</v>
+      </c>
+      <c r="F2">
         <v>1.76786308230869</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>19.8749099509535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0" t="n">
+      <c r="H2">
+        <v>19.874909950953501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>788</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>1480</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>1.16723571098005</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0.790627886345289</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.911877996917321</v>
-      </c>
-      <c r="G3" s="0">
-        <f>2*(LN(E3)-LN($E$2))/(LN($B$2)-LN(B3))</f>
-        <v>0.879323144895087</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="E3">
+        <v>0.79062788634528902</v>
+      </c>
+      <c r="F3">
+        <v>0.91187799691732097</v>
+      </c>
+      <c r="G3">
+        <f>2*(LN(E3)-LN(E2))/(LN(B2)-LN(B3))</f>
+        <v>0.87932314489508789</v>
+      </c>
+      <c r="H3">
         <v>11.6873100073727</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>2058</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3938</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.849072173235434</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.508599129421163</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.595421225421053</v>
-      </c>
-      <c r="G4" s="0">
-        <f>2*(LN(E4)-LN($E$2))/(LN($B$2)-LN(B4))</f>
-        <v>0.89643920499892</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>7.56824482240162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0" t="n">
+      <c r="D4">
+        <v>0.84907217323543405</v>
+      </c>
+      <c r="E4">
+        <v>0.50859912942116303</v>
+      </c>
+      <c r="F4">
+        <v>0.59542122542105302</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G19" si="0">2*(LN(E4)-LN(E3))/(LN(B3)-LN(B4))</f>
+        <v>0.91910632811129456</v>
+      </c>
+      <c r="H4">
+        <v>7.5682448224016197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>4266</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>8259</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.67295690684694</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.350329216645888</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.41166418886385</v>
-      </c>
-      <c r="G5" s="0">
-        <f>2*(LN(E5)-LN($E$2))/(LN($B$2)-LN(B5))</f>
-        <v>0.927558485799017</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>5.22884194115391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="0" t="n">
+      <c r="D5">
+        <v>0.67295690684693998</v>
+      </c>
+      <c r="E5">
+        <v>0.35032921664588801</v>
+      </c>
+      <c r="F5">
+        <v>0.41166418886384998</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0228161329239904</v>
+      </c>
+      <c r="H5">
+        <v>5.2288419411539104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>6621</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>12903</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0.5571641177648</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.273921445392278</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.326963684139817</v>
-      </c>
-      <c r="G6" s="0">
-        <f>2*(LN(E6)-LN($E$2))/(LN($B$2)-LN(B6))</f>
-        <v>0.952364727902399</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>4.09147539865044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="0" t="n">
+      <c r="D6">
+        <v>0.55716411776480002</v>
+      </c>
+      <c r="E6">
+        <v>0.27392144539227797</v>
+      </c>
+      <c r="F6">
+        <v>0.32696368413981702</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1194215982577136</v>
+      </c>
+      <c r="H6">
+        <v>4.0914753986504397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>8173</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>15978</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>0.497426247405164</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>0.241933553369892</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>0.285936509801788</v>
-      </c>
-      <c r="G7" s="0">
-        <f>2*(LN(E7)-LN($E$2))/(LN($B$2)-LN(B7))</f>
-        <v>0.965603704358775</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>3.61438177329477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="0" t="n">
+      <c r="F7">
+        <v>0.28593650980178797</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.179338777508798</v>
+      </c>
+      <c r="H7">
+        <v>3.6143817732947698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>9015</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>17649</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.472953023680446</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8">
+        <v>0.47295302368044601</v>
+      </c>
+      <c r="E8">
         <v>0.227817269905778</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>0.26868410248032</v>
-      </c>
-      <c r="G8" s="0">
-        <f>2*(LN(E8)-LN($E$2))/(LN($B$2)-LN(B8))</f>
-        <v>0.972495305430626</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>3.4039681271639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="0" t="n">
+      <c r="F8">
+        <v>0.26868410248031999</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2262501738956204</v>
+      </c>
+      <c r="H8">
+        <v>3.4039681271639002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>9439</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>18484</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>0.462563095466061</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>0.221742226901914</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>0.261357672314063</v>
-      </c>
-      <c r="G9" s="0">
-        <f>2*(LN(E9)-LN($E$2))/(LN($B$2)-LN(B9))</f>
-        <v>0.974988490577634</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>3.3136470253302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="0" t="n">
+      <c r="F9">
+        <v>0.26135767231406298</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1761611617575254</v>
+      </c>
+      <c r="H9">
+        <v>3.3136470253302002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>9640</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>18883</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>0.458127449441044</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0.219353035567689</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.258583360907764</v>
-      </c>
-      <c r="G10" s="0">
-        <f>2*(LN(E10)-LN($E$2))/(LN($B$2)-LN(B10))</f>
-        <v>0.97528570955204</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>3.27806610742914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="0" t="n">
+      <c r="E10">
+        <v>0.21935303556768901</v>
+      </c>
+      <c r="F10">
+        <v>0.25858336090776401</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0282441868354568</v>
+      </c>
+      <c r="H10">
+        <v>3.2780661074291402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>9752</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>19106</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>0.45564907325768</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0.217960326917492</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.256837357842606</v>
-      </c>
-      <c r="G11" s="0">
-        <f>2*(LN(E11)-LN($E$2))/(LN($B$2)-LN(B11))</f>
-        <v>0.975674668254732</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>3.25743014801695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="0" t="n">
+      <c r="E11">
+        <v>0.21796032691749201</v>
+      </c>
+      <c r="F11">
+        <v>0.25683735784260597</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1028050341716509</v>
+      </c>
+      <c r="H11">
+        <v>3.2574301480169501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>9805</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>19211</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0.454048666103031</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12">
+        <v>0.45404866610303102</v>
+      </c>
+      <c r="E12">
         <v>0.217210497281634</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>0.255865259051726</v>
-      </c>
-      <c r="G12" s="0">
-        <f>2*(LN(E12)-LN($E$2))/(LN($B$2)-LN(B12))</f>
-        <v>0.976097626510212</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>3.24619938805401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="0" t="n">
+      <c r="F12">
+        <v>0.25586525905172602</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2716235405334455</v>
+      </c>
+      <c r="H12">
+        <v>3.2461993880540101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>9830</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>19260</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0.453669659933591</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13">
+        <v>0.45366965993359099</v>
+      </c>
+      <c r="E13">
         <v>0.21680472482783</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>0.255419927381552</v>
       </c>
-      <c r="G13" s="0">
-        <f>2*(LN(E13)-LN($E$2))/(LN($B$2)-LN(B13))</f>
-        <v>0.976428085026121</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>3.2401532166604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="0" t="n">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4685826193344682</v>
+      </c>
+      <c r="H13">
+        <v>3.2401532166604001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>9844</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>19288</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>0.453403243130303</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>0.216612405732172</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>0.255222551787749</v>
       </c>
-      <c r="G14" s="0">
-        <f>2*(LN(E14)-LN($E$2))/(LN($B$2)-LN(B14))</f>
-        <v>0.976529563707921</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>3.23725610996222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="0" t="n">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2471276780536689</v>
+      </c>
+      <c r="H14">
+        <v>3.2372561099622201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>9855</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>19310</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0.453153730797381</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15">
+        <v>0.45315373079738103</v>
+      </c>
+      <c r="E15">
         <v>0.216498540543034</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>0.255030649034804</v>
-      </c>
-      <c r="G15" s="0">
-        <f>2*(LN(E15)-LN($E$2))/(LN($B$2)-LN(B15))</f>
-        <v>0.976519295800989</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>3.23559958889578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="0" t="n">
+      <c r="F15">
+        <v>0.25503064903480399</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94161478134911603</v>
+      </c>
+      <c r="H15">
+        <v>3.2355995888957798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>9856</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>19312</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0.453139865513117</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.216484952025274</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="D16">
+        <v>0.45313986551311702</v>
+      </c>
+      <c r="E16">
+        <v>0.21648495202527401</v>
+      </c>
+      <c r="F16">
         <v>0.255018901142196</v>
       </c>
-      <c r="G16" s="0">
-        <f>2*(LN(E16)-LN($E$2))/(LN($B$2)-LN(B16))</f>
-        <v>0.976526260626397</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>3.23539760424998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="0" t="n">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2371985446202496</v>
+      </c>
+      <c r="H16">
+        <v>3.2353976042499801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>9858</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>19316</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0.453117651957177</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.216483365619913</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="D17">
+        <v>0.45311765195717701</v>
+      </c>
+      <c r="E17">
+        <v>0.21648336561991299</v>
+      </c>
+      <c r="F17">
         <v>0.255030486561377</v>
       </c>
-      <c r="G17" s="0">
-        <f>2*(LN(E17)-LN($E$2))/(LN($B$2)-LN(B17))</f>
-        <v>0.976477948740085</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>3.23536515225872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="0" t="n">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2232525812132867E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.2353651522587201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>9860</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>19320</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>0.453004389463595</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>0.216477447437042</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>0.255026372672214</v>
-      </c>
-      <c r="G18" s="0">
-        <f>2*(LN(E18)-LN($E$2))/(LN($B$2)-LN(B18))</f>
-        <v>0.976440189581764</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>3.23529029560819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="0" t="n">
+      <c r="F18">
+        <v>0.25502637267221401</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26952723188427719</v>
+      </c>
+      <c r="H18">
+        <v>3.2352902956081899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>9861</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>19322</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0.452968972888433</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.216457439937791</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.254994006240206</v>
-      </c>
-      <c r="G19" s="0">
-        <f>2*(LN(E19)-LN($E$2))/(LN($B$2)-LN(B19))</f>
-        <v>0.976462787024045</v>
-      </c>
-      <c r="H19" s="0" t="n">
+      <c r="D19">
+        <v>0.45296897288843302</v>
+      </c>
+      <c r="E19">
+        <v>0.21645743993779101</v>
+      </c>
+      <c r="F19">
+        <v>0.25499400624020602</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8227585910604676</v>
+      </c>
+      <c r="H19">
         <v>3.23499325750663</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="1" pageOrder="overThenDown"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup pageOrder="overThenDown"/>
 </worksheet>
 </file>